--- a/Code/Results/Cases/Case_5_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40249099734717</v>
+        <v>22.0484878138354</v>
       </c>
       <c r="C2">
-        <v>13.42355210277944</v>
+        <v>7.086576677024713</v>
       </c>
       <c r="D2">
-        <v>10.21530645666396</v>
+        <v>9.772756460511282</v>
       </c>
       <c r="E2">
-        <v>6.700241323299462</v>
+        <v>10.02013192933944</v>
       </c>
       <c r="F2">
-        <v>63.74875494426423</v>
+        <v>51.48609614823092</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.345814342746128</v>
+        <v>10.38116335073162</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58884491847536</v>
+        <v>21.76138917492624</v>
       </c>
       <c r="C3">
-        <v>12.47700286369518</v>
+        <v>6.627830347426846</v>
       </c>
       <c r="D3">
-        <v>9.790613599165395</v>
+        <v>9.654196310775246</v>
       </c>
       <c r="E3">
-        <v>6.644159631353605</v>
+        <v>10.01792632901276</v>
       </c>
       <c r="F3">
-        <v>59.9988171444983</v>
+        <v>50.33935074908573</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.101024867761742</v>
+        <v>10.37744982034082</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43923032749472</v>
+        <v>21.59331492376979</v>
       </c>
       <c r="C4">
-        <v>11.8739874295677</v>
+        <v>6.329235690193566</v>
       </c>
       <c r="D4">
-        <v>9.528965691489748</v>
+        <v>9.581002176143727</v>
       </c>
       <c r="E4">
-        <v>6.611890743402171</v>
+        <v>10.01709169825472</v>
       </c>
       <c r="F4">
-        <v>57.64857092302819</v>
+        <v>49.63020320537586</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.954775072853934</v>
+        <v>10.37764010772753</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01380453350939</v>
+        <v>21.52698135237814</v>
       </c>
       <c r="C5">
-        <v>11.6225076506071</v>
+        <v>6.20329161062159</v>
       </c>
       <c r="D5">
-        <v>9.422085960309671</v>
+        <v>9.551089646392899</v>
       </c>
       <c r="E5">
-        <v>6.599240728075433</v>
+        <v>10.01688176157242</v>
       </c>
       <c r="F5">
-        <v>56.67883112412233</v>
+        <v>49.34028504999038</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.896196291831989</v>
+        <v>10.37833839773096</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94279183051141</v>
+        <v>21.51609971108232</v>
       </c>
       <c r="C6">
-        <v>11.58039574949921</v>
+        <v>6.18212090492607</v>
       </c>
       <c r="D6">
-        <v>9.404322644267026</v>
+        <v>9.546117965559333</v>
       </c>
       <c r="E6">
-        <v>6.597169170464155</v>
+        <v>10.01685475019199</v>
       </c>
       <c r="F6">
-        <v>56.51708761714546</v>
+        <v>49.29209781294129</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.886531078667649</v>
+        <v>10.37849181933987</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43351785688802</v>
+        <v>21.59241146710756</v>
       </c>
       <c r="C7">
-        <v>11.87061946449813</v>
+        <v>6.327554441328208</v>
       </c>
       <c r="D7">
-        <v>9.527525338840618</v>
+        <v>9.580599091536566</v>
       </c>
       <c r="E7">
-        <v>6.611718172843227</v>
+        <v>10.0170883405126</v>
       </c>
       <c r="F7">
-        <v>57.63554102903456</v>
+        <v>49.62629660586742</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.953980924682124</v>
+        <v>10.37764701258604</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78547351943028</v>
+        <v>21.94785164635859</v>
       </c>
       <c r="C8">
-        <v>13.10154653956807</v>
+        <v>6.931907290069574</v>
       </c>
       <c r="D8">
-        <v>10.06902815564245</v>
+        <v>9.731968318559609</v>
       </c>
       <c r="E8">
-        <v>6.680426430482955</v>
+        <v>10.01926330444802</v>
       </c>
       <c r="F8">
-        <v>62.46561711474493</v>
+        <v>51.09194122699942</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.260566589944931</v>
+        <v>10.37937001928289</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10048253386777</v>
+        <v>22.70556283401936</v>
       </c>
       <c r="C9">
-        <v>15.35596670368978</v>
+        <v>7.983254905177745</v>
       </c>
       <c r="D9">
-        <v>11.12688965659653</v>
+        <v>10.02500069203515</v>
       </c>
       <c r="E9">
-        <v>6.83466568769023</v>
+        <v>10.02767349806251</v>
       </c>
       <c r="F9">
-        <v>71.57276510281598</v>
+        <v>53.91201034155129</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.894685073570093</v>
+        <v>10.4023569889279</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.11495471223717</v>
+        <v>23.29308280119702</v>
       </c>
       <c r="C10">
-        <v>16.93849129977514</v>
+        <v>8.674878739815513</v>
       </c>
       <c r="D10">
-        <v>11.90852353491601</v>
+        <v>10.23711248379156</v>
       </c>
       <c r="E10">
-        <v>6.963718410337083</v>
+        <v>10.0364109055182</v>
       </c>
       <c r="F10">
-        <v>78.08553589148559</v>
+        <v>55.93310628958004</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.383280139891429</v>
+        <v>10.43118803550282</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.46244631515258</v>
+        <v>23.56570214304283</v>
       </c>
       <c r="C11">
-        <v>17.64915228189288</v>
+        <v>8.97214989870403</v>
       </c>
       <c r="D11">
-        <v>12.26754359215157</v>
+        <v>10.33273607416806</v>
       </c>
       <c r="E11">
-        <v>7.026934288167026</v>
+        <v>10.04094794405009</v>
       </c>
       <c r="F11">
-        <v>81.02705193673947</v>
+        <v>56.83805544552168</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.611667934897735</v>
+        <v>10.44688716085988</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.97037140209702</v>
+        <v>23.66959241502713</v>
       </c>
       <c r="C12">
-        <v>17.91765494062285</v>
+        <v>9.082238192240068</v>
       </c>
       <c r="D12">
-        <v>12.40428466501391</v>
+        <v>10.3688064050319</v>
       </c>
       <c r="E12">
-        <v>7.051636700831454</v>
+        <v>10.04274735343877</v>
       </c>
       <c r="F12">
-        <v>82.13997509466786</v>
+        <v>57.17839089387282</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.734217822911724</v>
+        <v>10.45320200225992</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.86106467757036</v>
+        <v>23.64719045526257</v>
       </c>
       <c r="C13">
-        <v>17.85984193493141</v>
+        <v>9.058638872222541</v>
       </c>
       <c r="D13">
-        <v>12.3747943952892</v>
+        <v>10.3610444959619</v>
       </c>
       <c r="E13">
-        <v>7.046280493752473</v>
+        <v>10.04235619390334</v>
       </c>
       <c r="F13">
-        <v>81.90029026368167</v>
+        <v>57.10520215084141</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.706373265234726</v>
+        <v>10.45182556552832</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.50427339354427</v>
+        <v>23.57423677825729</v>
       </c>
       <c r="C14">
-        <v>17.67124965546126</v>
+        <v>8.981256590749652</v>
       </c>
       <c r="D14">
-        <v>12.27877558848201</v>
+        <v>10.33570650078839</v>
       </c>
       <c r="E14">
-        <v>7.028950504647509</v>
+        <v>10.04109434990626</v>
       </c>
       <c r="F14">
-        <v>81.11861800431927</v>
+        <v>56.86610361032442</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.618846399486312</v>
+        <v>10.44739928346159</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.28546015736528</v>
+        <v>23.52963249567581</v>
       </c>
       <c r="C15">
-        <v>17.55567624629552</v>
+        <v>8.933534903139813</v>
       </c>
       <c r="D15">
-        <v>12.220074045696</v>
+        <v>10.32016752619054</v>
       </c>
       <c r="E15">
-        <v>7.018438744955305</v>
+        <v>10.04033203942851</v>
       </c>
       <c r="F15">
-        <v>80.6397677467353</v>
+        <v>56.71933521663861</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.581350959246125</v>
+        <v>10.44473617834693</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.02650076264948</v>
+        <v>23.27536439424644</v>
       </c>
       <c r="C16">
-        <v>16.89191992505438</v>
+        <v>8.655103335785752</v>
       </c>
       <c r="D16">
-        <v>11.88515321071558</v>
+        <v>10.23084447217567</v>
       </c>
       <c r="E16">
-        <v>6.959687145888635</v>
+        <v>10.03612575538822</v>
       </c>
       <c r="F16">
-        <v>77.89303898081845</v>
+        <v>55.87365129645875</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.368489552843222</v>
+        <v>10.43021392287683</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24876608177427</v>
+        <v>23.12066850303977</v>
       </c>
       <c r="C17">
-        <v>16.48282435645908</v>
+        <v>8.479859689487673</v>
       </c>
       <c r="D17">
-        <v>11.68075598824971</v>
+        <v>10.17581442349057</v>
       </c>
       <c r="E17">
-        <v>6.924874412146541</v>
+        <v>10.03368970264779</v>
       </c>
       <c r="F17">
-        <v>76.20388231868283</v>
+        <v>55.35095063802551</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.239566885304898</v>
+        <v>10.42196571995097</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.79911487798111</v>
+        <v>23.03220224888766</v>
       </c>
       <c r="C18">
-        <v>16.24660273086614</v>
+        <v>8.377430098040168</v>
       </c>
       <c r="D18">
-        <v>11.56349505426641</v>
+        <v>10.14408189171612</v>
       </c>
       <c r="E18">
-        <v>6.905267273537939</v>
+        <v>10.0323414532526</v>
       </c>
       <c r="F18">
-        <v>75.23017422558131</v>
+        <v>55.0489612424597</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.16597834790781</v>
+        <v>10.41746488673992</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.64644345618443</v>
+        <v>23.00234032116628</v>
       </c>
       <c r="C19">
-        <v>16.16644462653615</v>
+        <v>8.342468143715905</v>
       </c>
       <c r="D19">
-        <v>11.52383698936374</v>
+        <v>10.13332441950534</v>
       </c>
       <c r="E19">
-        <v>6.898696998001051</v>
+        <v>10.03189403105685</v>
       </c>
       <c r="F19">
-        <v>74.90007033452987</v>
+        <v>54.94649021206052</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.141155653884857</v>
+        <v>10.41598281440405</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.33179020607497</v>
+        <v>23.13708411956565</v>
       </c>
       <c r="C20">
-        <v>16.52646385918354</v>
+        <v>8.49868370053963</v>
       </c>
       <c r="D20">
-        <v>11.70248122043889</v>
+        <v>10.18168093219141</v>
       </c>
       <c r="E20">
-        <v>6.92853645221598</v>
+        <v>10.03394354587338</v>
       </c>
       <c r="F20">
-        <v>76.38390526551566</v>
+        <v>55.40673431633124</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.253231574468654</v>
+        <v>10.42281858354283</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60912523759168</v>
+        <v>23.59564816571287</v>
       </c>
       <c r="C21">
-        <v>17.72665375638071</v>
+        <v>9.004052890659722</v>
       </c>
       <c r="D21">
-        <v>12.3069544957419</v>
+        <v>10.34315281294269</v>
       </c>
       <c r="E21">
-        <v>7.034018958120628</v>
+        <v>10.04146277310713</v>
       </c>
       <c r="F21">
-        <v>81.34822061715397</v>
+        <v>56.93639846475143</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.642167101049584</v>
+        <v>10.44868936495741</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.084557904236</v>
+        <v>23.89911344564233</v>
       </c>
       <c r="C22">
-        <v>18.50795995940268</v>
+        <v>9.319881258566564</v>
       </c>
       <c r="D22">
-        <v>12.70680859316684</v>
+        <v>10.44785956249896</v>
       </c>
       <c r="E22">
-        <v>7.107484904296747</v>
+        <v>10.04685129296852</v>
       </c>
       <c r="F22">
-        <v>84.58850682558037</v>
+        <v>57.92231747493458</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.017631741535149</v>
+        <v>10.46775259402379</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.29784560286275</v>
+        <v>23.73684111789482</v>
       </c>
       <c r="C23">
-        <v>18.09096105795743</v>
+        <v>9.15263625717583</v>
       </c>
       <c r="D23">
-        <v>12.49283975905384</v>
+        <v>10.3920560960543</v>
       </c>
       <c r="E23">
-        <v>7.067815064795576</v>
+        <v>10.04393179150389</v>
       </c>
       <c r="F23">
-        <v>82.85863004968522</v>
+        <v>57.39746157877413</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.817594570426539</v>
+        <v>10.45738162325292</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29426293058109</v>
+        <v>23.12966114520587</v>
       </c>
       <c r="C24">
-        <v>16.50673769131918</v>
+        <v>8.490178597992506</v>
       </c>
       <c r="D24">
-        <v>11.69265848587996</v>
+        <v>10.17902897840229</v>
       </c>
       <c r="E24">
-        <v>6.926879584031758</v>
+        <v>10.03382862057745</v>
       </c>
       <c r="F24">
-        <v>76.30252510540309</v>
+        <v>55.38151911022066</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.247052125894099</v>
+        <v>10.42243225260891</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.96332235859841</v>
+        <v>22.4947113268589</v>
       </c>
       <c r="C25">
-        <v>14.76099858419078</v>
+        <v>7.713085235959547</v>
       </c>
       <c r="D25">
-        <v>10.84058430899008</v>
+        <v>9.946223733472165</v>
       </c>
       <c r="E25">
-        <v>6.790494130169207</v>
+        <v>10.02495125711182</v>
       </c>
       <c r="F25">
-        <v>69.14481232489476</v>
+        <v>53.15679566544176</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.719434172406848</v>
+        <v>10.39403885515932</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.0484878138354</v>
+        <v>24.4024909973471</v>
       </c>
       <c r="C2">
-        <v>7.086576677024713</v>
+        <v>13.42355210277919</v>
       </c>
       <c r="D2">
-        <v>9.772756460511282</v>
+        <v>10.21530645666403</v>
       </c>
       <c r="E2">
-        <v>10.02013192933944</v>
+        <v>6.700241323299408</v>
       </c>
       <c r="F2">
-        <v>51.48609614823092</v>
+        <v>63.74875494426425</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.38116335073162</v>
+        <v>7.345814342746191</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.76138917492624</v>
+        <v>22.58884491847538</v>
       </c>
       <c r="C3">
-        <v>6.627830347426846</v>
+        <v>12.47700286369503</v>
       </c>
       <c r="D3">
-        <v>9.654196310775246</v>
+        <v>9.790613599165248</v>
       </c>
       <c r="E3">
-        <v>10.01792632901276</v>
+        <v>6.644159631353544</v>
       </c>
       <c r="F3">
-        <v>50.33935074908573</v>
+        <v>59.99881714449826</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37744982034082</v>
+        <v>7.101024867761742</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.59331492376979</v>
+        <v>21.43923032749476</v>
       </c>
       <c r="C4">
-        <v>6.329235690193566</v>
+        <v>11.87398742956742</v>
       </c>
       <c r="D4">
-        <v>9.581002176143727</v>
+        <v>9.528965691489656</v>
       </c>
       <c r="E4">
-        <v>10.01709169825472</v>
+        <v>6.611890743402165</v>
       </c>
       <c r="F4">
-        <v>49.63020320537586</v>
+        <v>57.64857092302803</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.37764010772753</v>
+        <v>6.954775072853973</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.52698135237814</v>
+        <v>21.01380453350941</v>
       </c>
       <c r="C5">
-        <v>6.20329161062159</v>
+        <v>11.62250765060708</v>
       </c>
       <c r="D5">
-        <v>9.551089646392899</v>
+        <v>9.422085960309611</v>
       </c>
       <c r="E5">
-        <v>10.01688176157242</v>
+        <v>6.599240728075313</v>
       </c>
       <c r="F5">
-        <v>49.34028504999038</v>
+        <v>56.67883112412232</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.37833839773096</v>
+        <v>6.896196291831957</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.51609971108232</v>
+        <v>20.94279183051143</v>
       </c>
       <c r="C6">
-        <v>6.18212090492607</v>
+        <v>11.58039574949894</v>
       </c>
       <c r="D6">
-        <v>9.546117965559333</v>
+        <v>9.404322644267037</v>
       </c>
       <c r="E6">
-        <v>10.01685475019199</v>
+        <v>6.597169170464142</v>
       </c>
       <c r="F6">
-        <v>49.29209781294129</v>
+        <v>56.51708761714536</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.37849181933987</v>
+        <v>6.886531078667682</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59241146710756</v>
+        <v>21.43351785688802</v>
       </c>
       <c r="C7">
-        <v>6.327554441328208</v>
+        <v>11.87061946449839</v>
       </c>
       <c r="D7">
-        <v>9.580599091536566</v>
+        <v>9.527525338840571</v>
       </c>
       <c r="E7">
-        <v>10.0170883405126</v>
+        <v>6.611718172843347</v>
       </c>
       <c r="F7">
-        <v>49.62629660586742</v>
+        <v>57.63554102903456</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.37764701258604</v>
+        <v>6.953980924682076</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.94785164635859</v>
+        <v>23.78547351943016</v>
       </c>
       <c r="C8">
-        <v>6.931907290069574</v>
+        <v>13.10154653956828</v>
       </c>
       <c r="D8">
-        <v>9.731968318559609</v>
+        <v>10.06902815564241</v>
       </c>
       <c r="E8">
-        <v>10.01926330444802</v>
+        <v>6.680426430482902</v>
       </c>
       <c r="F8">
-        <v>51.09194122699942</v>
+        <v>62.465617114745</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.37937001928289</v>
+        <v>7.260566589944914</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.70556283401936</v>
+        <v>28.10048253386794</v>
       </c>
       <c r="C9">
-        <v>7.983254905177745</v>
+        <v>15.35596670368982</v>
       </c>
       <c r="D9">
-        <v>10.02500069203515</v>
+        <v>11.12688965659666</v>
       </c>
       <c r="E9">
-        <v>10.02767349806251</v>
+        <v>6.8346656876901</v>
       </c>
       <c r="F9">
-        <v>53.91201034155129</v>
+        <v>71.5727651028164</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.4023569889279</v>
+        <v>7.894685073570069</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.29308280119702</v>
+        <v>31.11495471223727</v>
       </c>
       <c r="C10">
-        <v>8.674878739815513</v>
+        <v>16.93849129977475</v>
       </c>
       <c r="D10">
-        <v>10.23711248379156</v>
+        <v>11.90852353491601</v>
       </c>
       <c r="E10">
-        <v>10.0364109055182</v>
+        <v>6.963718410336971</v>
       </c>
       <c r="F10">
-        <v>55.93310628958004</v>
+        <v>78.08553589148568</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.43118803550282</v>
+        <v>8.383280139891401</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.56570214304283</v>
+        <v>32.46244631515257</v>
       </c>
       <c r="C11">
-        <v>8.97214989870403</v>
+        <v>17.6491522818927</v>
       </c>
       <c r="D11">
-        <v>10.33273607416806</v>
+        <v>12.26754359215144</v>
       </c>
       <c r="E11">
-        <v>10.04094794405009</v>
+        <v>7.026934288167065</v>
       </c>
       <c r="F11">
-        <v>56.83805544552168</v>
+        <v>81.02705193673907</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.44688716085988</v>
+        <v>8.611667934897756</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.66959241502713</v>
+        <v>32.97037140209679</v>
       </c>
       <c r="C12">
-        <v>9.082238192240068</v>
+        <v>17.91765494062277</v>
       </c>
       <c r="D12">
-        <v>10.3688064050319</v>
+        <v>12.40428466501376</v>
       </c>
       <c r="E12">
-        <v>10.04274735343877</v>
+        <v>7.051636700831393</v>
       </c>
       <c r="F12">
-        <v>57.17839089387282</v>
+        <v>82.13997509466682</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.45320200225992</v>
+        <v>8.734217822911743</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.64719045526257</v>
+        <v>32.86106467757038</v>
       </c>
       <c r="C13">
-        <v>9.058638872222541</v>
+        <v>17.85984193493146</v>
       </c>
       <c r="D13">
-        <v>10.3610444959619</v>
+        <v>12.37479439528927</v>
       </c>
       <c r="E13">
-        <v>10.04235619390334</v>
+        <v>7.04628049375242</v>
       </c>
       <c r="F13">
-        <v>57.10520215084141</v>
+        <v>81.90029026368236</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.45182556552832</v>
+        <v>8.706373265234783</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.57423677825729</v>
+        <v>32.50427339354428</v>
       </c>
       <c r="C14">
-        <v>8.981256590749652</v>
+        <v>17.67124965546109</v>
       </c>
       <c r="D14">
-        <v>10.33570650078839</v>
+        <v>12.27877558848223</v>
       </c>
       <c r="E14">
-        <v>10.04109434990626</v>
+        <v>7.02895050464754</v>
       </c>
       <c r="F14">
-        <v>56.86610361032442</v>
+        <v>81.11861800432007</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.44739928346159</v>
+        <v>8.618846399486301</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.52963249567581</v>
+        <v>32.28546015736543</v>
       </c>
       <c r="C15">
-        <v>8.933534903139813</v>
+        <v>17.55567624629566</v>
       </c>
       <c r="D15">
-        <v>10.32016752619054</v>
+        <v>12.22007404569606</v>
       </c>
       <c r="E15">
-        <v>10.04033203942851</v>
+        <v>7.018438744955318</v>
       </c>
       <c r="F15">
-        <v>56.71933521663861</v>
+        <v>80.63976774673604</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.44473617834693</v>
+        <v>8.581350959246119</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.27536439424644</v>
+        <v>31.02650076264948</v>
       </c>
       <c r="C16">
-        <v>8.655103335785752</v>
+        <v>16.89191992505431</v>
       </c>
       <c r="D16">
-        <v>10.23084447217567</v>
+        <v>11.88515321071567</v>
       </c>
       <c r="E16">
-        <v>10.03612575538822</v>
+        <v>6.959687145888546</v>
       </c>
       <c r="F16">
-        <v>55.87365129645875</v>
+        <v>77.8930389808186</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.43021392287683</v>
+        <v>8.368489552843176</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.12066850303977</v>
+        <v>30.24876608177445</v>
       </c>
       <c r="C17">
-        <v>8.479859689487673</v>
+        <v>16.48282435645923</v>
       </c>
       <c r="D17">
-        <v>10.17581442349057</v>
+        <v>11.68075598824976</v>
       </c>
       <c r="E17">
-        <v>10.03368970264779</v>
+        <v>6.92487441214652</v>
       </c>
       <c r="F17">
-        <v>55.35095063802551</v>
+        <v>76.2038823186834</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.42196571995097</v>
+        <v>8.239566885304875</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.03220224888766</v>
+        <v>29.79911487798102</v>
       </c>
       <c r="C18">
-        <v>8.377430098040168</v>
+        <v>16.24660273086635</v>
       </c>
       <c r="D18">
-        <v>10.14408189171612</v>
+        <v>11.56349505426637</v>
       </c>
       <c r="E18">
-        <v>10.0323414532526</v>
+        <v>6.905267273538025</v>
       </c>
       <c r="F18">
-        <v>55.0489612424597</v>
+        <v>75.23017422558091</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.41746488673992</v>
+        <v>8.165978347907792</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.00234032116628</v>
+        <v>29.64644345618428</v>
       </c>
       <c r="C19">
-        <v>8.342468143715905</v>
+        <v>16.16644462653611</v>
       </c>
       <c r="D19">
-        <v>10.13332441950534</v>
+        <v>11.52383698936374</v>
       </c>
       <c r="E19">
-        <v>10.03189403105685</v>
+        <v>6.898696998001035</v>
       </c>
       <c r="F19">
-        <v>54.94649021206052</v>
+        <v>74.9000703345296</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.41598281440405</v>
+        <v>8.141155653884853</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.13708411956565</v>
+        <v>30.33179020607507</v>
       </c>
       <c r="C20">
-        <v>8.49868370053963</v>
+        <v>16.52646385918362</v>
       </c>
       <c r="D20">
-        <v>10.18168093219141</v>
+        <v>11.70248122043885</v>
       </c>
       <c r="E20">
-        <v>10.03394354587338</v>
+        <v>6.928536452216043</v>
       </c>
       <c r="F20">
-        <v>55.40673431633124</v>
+        <v>76.38390526551562</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.42281858354283</v>
+        <v>8.253231574468648</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59564816571287</v>
+        <v>32.60912523759155</v>
       </c>
       <c r="C21">
-        <v>9.004052890659722</v>
+        <v>17.72665375638064</v>
       </c>
       <c r="D21">
-        <v>10.34315281294269</v>
+        <v>12.30695449574189</v>
       </c>
       <c r="E21">
-        <v>10.04146277310713</v>
+        <v>7.034018958120622</v>
       </c>
       <c r="F21">
-        <v>56.93639846475143</v>
+        <v>81.34822061715361</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.44868936495741</v>
+        <v>8.642167101049461</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.89911344564233</v>
+        <v>34.084557904236</v>
       </c>
       <c r="C22">
-        <v>9.319881258566564</v>
+        <v>18.50795995940317</v>
       </c>
       <c r="D22">
-        <v>10.44785956249896</v>
+        <v>12.70680859316685</v>
       </c>
       <c r="E22">
-        <v>10.04685129296852</v>
+        <v>7.107484904296747</v>
       </c>
       <c r="F22">
-        <v>57.92231747493458</v>
+        <v>84.58850682558054</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.46775259402379</v>
+        <v>9.017631741535258</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73684111789482</v>
+        <v>33.29784560286273</v>
       </c>
       <c r="C23">
-        <v>9.15263625717583</v>
+        <v>18.09096105795735</v>
       </c>
       <c r="D23">
-        <v>10.3920560960543</v>
+        <v>12.4928397590539</v>
       </c>
       <c r="E23">
-        <v>10.04393179150389</v>
+        <v>7.067815064795482</v>
       </c>
       <c r="F23">
-        <v>57.39746157877413</v>
+        <v>82.85863004968476</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.45738162325292</v>
+        <v>8.817594570426554</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.12966114520587</v>
+        <v>30.29426293058115</v>
       </c>
       <c r="C24">
-        <v>8.490178597992506</v>
+        <v>16.50673769131967</v>
       </c>
       <c r="D24">
-        <v>10.17902897840229</v>
+        <v>11.69265848588006</v>
       </c>
       <c r="E24">
-        <v>10.03382862057745</v>
+        <v>6.926879584031803</v>
       </c>
       <c r="F24">
-        <v>55.38151911022066</v>
+        <v>76.30252510540339</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.42243225260891</v>
+        <v>8.247052125894076</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4947113268589</v>
+        <v>26.96332235859852</v>
       </c>
       <c r="C25">
-        <v>7.713085235959547</v>
+        <v>14.76099858419074</v>
       </c>
       <c r="D25">
-        <v>9.946223733472165</v>
+        <v>10.84058430899009</v>
       </c>
       <c r="E25">
-        <v>10.02495125711182</v>
+        <v>6.790494130169305</v>
       </c>
       <c r="F25">
-        <v>53.15679566544176</v>
+        <v>69.14481232489484</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.39403885515932</v>
+        <v>7.719434172406832</v>
       </c>
       <c r="M25">
         <v>0</v>
